--- a/tests/input/data_validation.xlsx
+++ b/tests/input/data_validation.xlsx
@@ -339,17 +339,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A4" xr:uid="{1BD0F11D-078A-4E6C-9EDB-9A3484D7C6E5}">
+    <dataValidation type="list" sqref="A1:A4">
       <formula1>"abc,xyz"</formula1>
     </dataValidation>
   </dataValidations>
